--- a/TestData/GexproDPT_LoginDetails.xlsx
+++ b/TestData/GexproDPT_LoginDetails.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eyindia-my.sharepoint.com/personal/arpitha_atharga_in_ey_com/Documents/EY/eydocs/Python_Projects/gexproDPT/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{5E853957-8AC1-49B8-8439-A1DE82112A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91BF5705-E2D1-44CA-8082-E45BC75F1DC0}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{5E853957-8AC1-49B8-8439-A1DE82112A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37FB59A4-0978-4EF1-A8BB-51B7306AB0E3}"/>
   <bookViews>
     <workbookView xWindow="3348" yWindow="1776" windowWidth="15804" windowHeight="11340" xr2:uid="{0EE0951D-D1FF-42C1-8144-B3037BB51FC9}"/>
   </bookViews>
@@ -65,7 +65,7 @@
     <t>pass</t>
   </si>
   <si>
-    <t>prudhvi.bachala@in.ey.com</t>
+    <t>sannith.kandukuri@in.ey.com</t>
   </si>
 </sst>
 </file>
@@ -167,9 +167,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -207,7 +207,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -313,7 +313,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -455,7 +455,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -466,7 +466,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
